--- a/src/main/resources/import_test_data/tc1.xlsx
+++ b/src/main/resources/import_test_data/tc1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,35 +15,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>supplier1</t>
   </si>
   <si>
-    <t>08.08.2016</t>
-  </si>
-  <si>
-    <t>24.07.2016</t>
-  </si>
-  <si>
     <t>supplier2</t>
   </si>
   <si>
-    <t>29.07.2016</t>
+    <t>28.08.2016</t>
+  </si>
+  <si>
+    <t>25.08.2016</t>
+  </si>
+  <si>
+    <t>09.09.2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,11 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -83,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -368,16 +402,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -387,8 +422,8 @@
       <c r="B1">
         <v>50000</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -398,23 +433,25 @@
       <c r="B2">
         <v>50000</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>200000</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/import_test_data/tc1.xlsx
+++ b/src/main/resources/import_test_data/tc1.xlsx
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,48 +403,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>50000</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>50000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>200000</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/import_test_data/tc1.xlsx
+++ b/src/main/resources/import_test_data/tc1.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>supplier1</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>09.09.2016</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3c</t>
   </si>
 </sst>
 </file>
@@ -406,18 +415,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -430,8 +440,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -444,8 +454,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>

--- a/src/main/resources/import_test_data/tc1.xlsx
+++ b/src/main/resources/import_test_data/tc1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -18,7 +18,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0">
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">Автор:
 </t>
         </r>
       </text>
@@ -58,13 +58,13 @@
     <t>09.09.2016</t>
   </si>
   <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>3c</t>
+    <t>1aqwes</t>
+  </si>
+  <si>
+    <t>2ssdd</t>
+  </si>
+  <si>
+    <t>4bs</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -126,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -238,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
